--- a/biology/Biologie cellulaire et moléculaire/Valérie_Gabelica/Valérie_Gabelica.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Valérie_Gabelica/Valérie_Gabelica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Gabelica</t>
+          <t>Valérie_Gabelica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Valérie Gabelica est une chimiste belge, spécialiste de spectrométrie de masse des acides nucléiques et complexes supramoléculaires[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valérie Gabelica est une chimiste belge, spécialiste de spectrométrie de masse des acides nucléiques et complexes supramoléculaires,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Gabelica</t>
+          <t>Valérie_Gabelica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Valérie Gabelica a obtenu son doctorat de chimie à l'université de Liège en 2002. Elle effectue un an de postdoctorat à l'Université de Francfort puis intègre le Fonds de la recherche scientifique à Bruxelles.
 En janvier 2013, elle rejoint l'INSERM U869 ARNA à l'université de Bordeaux.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Gabelica</t>
+          <t>Valérie_Gabelica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022 : Prix recherche de l'INSERM[3]
-2021 : Lauréate du Prix pour les sciences du vivant de la Fondation Bettencourt-Schueller[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022 : Prix recherche de l'INSERM
+2021 : Lauréate du Prix pour les sciences du vivant de la Fondation Bettencourt-Schueller.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Val%C3%A9rie_Gabelica</t>
+          <t>Valérie_Gabelica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
